--- a/ppt/team.xlsx
+++ b/ppt/team.xlsx
@@ -14,69 +14,136 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>P7</t>
   </si>
   <si>
-    <t>符玲亭</t>
-  </si>
-  <si>
-    <t>核心</t>
-  </si>
-  <si>
-    <t>郑超</t>
+    <t>郑超
+核心
+Dex前端+事务管理</t>
+  </si>
+  <si>
+    <t>符玲亭
+核心
+stream+跨链</t>
   </si>
   <si>
     <t>P6+</t>
   </si>
   <si>
-    <t>孟祥剑</t>
-  </si>
-  <si>
-    <t>高潜&amp;核心</t>
-  </si>
-  <si>
-    <t>叶志刚</t>
+    <r>
+      <t xml:space="preserve">孟祥剑
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高潜&amp;核心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+委托+治理+分红+跨链+OKChain底层架构+门罗冷签名</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">叶志刚
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高潜&amp;核心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+委托+治理+OKChain底层架构+门罗冷签名</t>
+    </r>
   </si>
   <si>
     <t>P6</t>
   </si>
   <si>
-    <t>韩学洋</t>
+    <t>韩学洋
+核心
+分红+defi</t>
+  </si>
+  <si>
+    <t>韩彦伟
+stream+订单</t>
+  </si>
+  <si>
+    <t>于林生
+OKChain部署+token</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>韩彦伟</t>
-  </si>
-  <si>
-    <t>于林生</t>
-  </si>
-  <si>
     <t>P5</t>
   </si>
   <si>
-    <t>王冠一</t>
-  </si>
-  <si>
-    <t xml:space="preserve">冀磊  </t>
-  </si>
-  <si>
-    <t>付希明</t>
+    <r>
+      <t xml:space="preserve">王冠一
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高潜&amp;核心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+委托+OKChain升级+token+部署+SDK+压测工具</t>
+    </r>
+  </si>
+  <si>
+    <t>冀磊  
+SDK+压测工具</t>
+  </si>
+  <si>
+    <t>葛溢力
+高潜
+OKChain升级+部署+SDK</t>
+  </si>
+  <si>
+    <t>陈芳平
+Dex前端+压测工具+stream</t>
+  </si>
+  <si>
+    <t>顾问</t>
+  </si>
+  <si>
+    <t>付希明
+异步网络共识出块专利</t>
   </si>
   <si>
     <t xml:space="preserve">                  </t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>葛溢力</t>
-  </si>
-  <si>
-    <t>陈芳平</t>
   </si>
 </sst>
 </file>
@@ -89,7 +156,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +308,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -436,12 +510,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -577,7 +666,7 @@
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -619,10 +708,10 @@
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,28 +720,28 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -673,13 +762,13 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -692,9 +781,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1015,134 +1113,95 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="D2:I13"/>
+  <dimension ref="D2:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
   <cols>
-    <col min="6" max="6" width="16.9375" customWidth="1"/>
+    <col min="5" max="5" width="44" customWidth="1"/>
+    <col min="6" max="6" width="33.453125" customWidth="1"/>
+    <col min="7" max="7" width="17.4453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:6">
-      <c r="D2" t="s">
+    <row r="2" ht="51" spans="4:7">
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="4:6">
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="3" ht="68" spans="4:7">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
-        <v>2</v>
-      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="4:6">
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
+    <row r="4" ht="51" spans="4:9">
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="4:6">
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>6</v>
-      </c>
+    <row r="5" ht="51" spans="4:7">
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="4:9">
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6"/>
-      <c r="I6" t="s">
-        <v>10</v>
-      </c>
+    <row r="6" ht="51" spans="4:7">
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="4:5">
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="4:5">
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="4:6">
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="4:5">
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="4:6">
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
+    <row r="7" ht="34" spans="4:7">
+      <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F11" t="s">
+      <c r="E7" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="4:5">
-      <c r="D12" t="s">
+      <c r="F7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="4:5">
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
+      <c r="G7" s="1"/>
     </row>
   </sheetData>
   <sortState ref="D2:E13">
